--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jowino\Documents\UiPath\Document_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CD158D-A71B-4CA5-8BF9-1B2357839B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D1B1C-FA08-4B42-9003-7B889AE8EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,656 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="216">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Item_Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>EGYPRO_FTTB_2023_2024_KIP149301_NATIONAL CEREALS &amp; PRODUCE BOARD KIPKELION (One Acre Fund Kipkelion)</t>
+  </si>
+  <si>
+    <t>Installation of 1, 2, 4 core drop cable for ISP</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2,800.00</t>
+  </si>
+  <si>
+    <t>Installation of Aerial Cable</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>2852</t>
+  </si>
+  <si>
+    <t>122,636.00</t>
+  </si>
+  <si>
+    <t>Installation of ATB</t>
+  </si>
+  <si>
+    <t>528.00</t>
+  </si>
+  <si>
+    <t>Installation of FAT 12, 24, 48 ports</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Installation of Aerial micro cable joint box</t>
+  </si>
+  <si>
+    <t>2,660.00</t>
+  </si>
+  <si>
+    <t>Supply, Install corrugated PVC pipe</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>Supply, Install PlasticTrunking size 38*25mm</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1,710.00</t>
+  </si>
+  <si>
+    <t>As built documents</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>14,451.36</t>
+  </si>
+  <si>
+    <t>Field detailed survey report</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>43,792.00</t>
+  </si>
+  <si>
+    <t>Project Management Aerial Incl of H&amp;S per meter</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>128,639.00</t>
+  </si>
+  <si>
+    <t>Pole Cable Bracket, Supply and Installation</t>
+  </si>
+  <si>
+    <t>2,200.00</t>
+  </si>
+  <si>
+    <t>8,800.00</t>
+  </si>
+  <si>
+    <t>Pole Support, Supply and Installation</t>
+  </si>
+  <si>
+    <t>9,000.00</t>
+  </si>
+  <si>
+    <t>36,000.00</t>
+  </si>
+  <si>
+    <t>Pole Down-lead clamp, Supply and Installation</t>
+  </si>
+  <si>
+    <t>1,500.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7,500.00</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 10m</t>
+  </si>
+  <si>
+    <t>13,500.00</t>
+  </si>
+  <si>
+    <t>67,500.00</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 8m</t>
+  </si>
+  <si>
+    <t>11,000.00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>198,000.00</t>
+  </si>
+  <si>
+    <t>Pole Tangent Support, Supply and Installation</t>
+  </si>
+  <si>
+    <t>1,800.00</t>
+  </si>
+  <si>
+    <t>37,800.00</t>
+  </si>
+  <si>
+    <t>Supply and installation of Universal Pole bracket</t>
+  </si>
+  <si>
+    <t>1,250.00</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>42,500.00</t>
+  </si>
+  <si>
+    <t>Pole Tension Clamp, Supply and Installation</t>
+  </si>
+  <si>
+    <t>2,300.00</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>156,400.00</t>
+  </si>
+  <si>
+    <t>Core Drilling per unit</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>ISP Building As built documents per building</t>
+  </si>
+  <si>
+    <t>Splicing, Testing and Commissioning 6-12 cores</t>
+  </si>
+  <si>
+    <t>3,300.00</t>
+  </si>
+  <si>
+    <t>ISP Building Survey, Design per building</t>
+  </si>
+  <si>
+    <t>4,400.00</t>
+  </si>
+  <si>
+    <t>ISP Building Acquisition</t>
+  </si>
+  <si>
+    <t>30,800.00</t>
+  </si>
+  <si>
+    <t>FIRESIDE_FTTB_2023-2024_MBS149426 KILUA RESORT</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>24,897.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>100.32</t>
+  </si>
+  <si>
+    <t>304.00</t>
+  </si>
+  <si>
+    <t>893.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3,000.00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5,400.00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>32,200.00</t>
+  </si>
+  <si>
+    <t>Total Brown Field :</t>
+  </si>
+  <si>
+    <t>Ksh 130,604.32</t>
+  </si>
+  <si>
+    <t>FIRESIDE_FTTB_2023-2024_MBS149443-Juma Plaza Mombasa</t>
+  </si>
+  <si>
+    <t>Installation of UG micro cable joint box</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2,700.00</t>
+  </si>
+  <si>
+    <t>2,400.00</t>
+  </si>
+  <si>
+    <t>Install Precast Manhole, Polymer covers and access</t>
+  </si>
+  <si>
+    <t>3,960.00</t>
+  </si>
+  <si>
+    <t>Ksh 48,220.00</t>
+  </si>
+  <si>
+    <t>KINDE_FTTB_2023-2024_MHR149237_CHEMILIL SUGAR COMPANY LTD</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>44,935.00</t>
+  </si>
+  <si>
+    <t>As-Built Documentation soft and hard copies BF</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>GIS based survey &amp; design BF</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>Project Management BF</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>Trenching up to 0.6m deep, lay ducts and reinstate</t>
+  </si>
+  <si>
+    <t>488.40</t>
+  </si>
+  <si>
+    <t>976.80</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2,480.00</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>4,783.68</t>
+  </si>
+  <si>
+    <t>14,496.00</t>
+  </si>
+  <si>
+    <t>42,582.00</t>
+  </si>
+  <si>
+    <t>27,000.00</t>
+  </si>
+  <si>
+    <t>6,000.00</t>
+  </si>
+  <si>
+    <t>Pole, Supply &amp; installation Wooden 12m</t>
+  </si>
+  <si>
+    <t>10,800.00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>77,000.00</t>
+  </si>
+  <si>
+    <t>Supply and Installation of approved Cable markers</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>36,800.00</t>
+  </si>
+  <si>
+    <t>KINDE_FTTB_2023_2024_MLV549393_ONE ACRE FUND MALAVA</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>30,573.00</t>
+  </si>
+  <si>
+    <t>Trenching up to 1.2m deep, lay ducts and reinstate</t>
+  </si>
+  <si>
+    <t>610.72</t>
+  </si>
+  <si>
+    <t>1,221.44</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>6,160.00</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>2,972.64</t>
+  </si>
+  <si>
+    <t>9,008.00</t>
+  </si>
+  <si>
+    <t>26,461.00</t>
+  </si>
+  <si>
+    <t>7,200.00</t>
+  </si>
+  <si>
+    <t>44,000.00</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>8,750.00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27,600.00</t>
+  </si>
+  <si>
+    <t>Ksh 244,509.64</t>
+  </si>
+  <si>
+    <t>PAVICON_FTTB_2023-2024_MRN149405-Muriranjas Hospital</t>
+  </si>
+  <si>
+    <t>Total Linearised Rate :</t>
+  </si>
+  <si>
+    <t>Ksh 1,279.36</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>3704</t>
+  </si>
+  <si>
+    <t>159,272.00</t>
+  </si>
+  <si>
+    <t>3442</t>
+  </si>
+  <si>
+    <t>18,173.76</t>
+  </si>
+  <si>
+    <t>55,072.00</t>
+  </si>
+  <si>
+    <t>161,774.00</t>
+  </si>
+  <si>
+    <t>15,000.00</t>
+  </si>
+  <si>
+    <t>22,000.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
+    <t>275,000.00</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>53,750.00</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>197,800.00</t>
+  </si>
+  <si>
+    <t>1,114,409.76</t>
+  </si>
+  <si>
+    <t>TECHMINDS_FTTB_2023_2024_NBI449248_209 LENANA ROAD- RELIEF INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>8,600.00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>168.96</t>
+  </si>
+  <si>
+    <t>512.00</t>
+  </si>
+  <si>
+    <t>1,504.00</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20,700.00</t>
+  </si>
+  <si>
+    <t>Splicing, Testing and Commissioning 1 Core</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>Ksh 106,852.96</t>
+  </si>
+  <si>
+    <t>KINDE_FTTB_2023_2024_NYM149298_NYAMIRA COUNTY ASSEMBLY</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>22,446.00</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>390.72</t>
+  </si>
+  <si>
+    <t>1,184.00</t>
+  </si>
+  <si>
+    <t>3,478.00</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>681.12</t>
+  </si>
+  <si>
+    <t>2,064.00</t>
+  </si>
+  <si>
+    <t>5,676.00</t>
+  </si>
+  <si>
+    <t>78,782.87</t>
+  </si>
+  <si>
+    <t>3,600.00</t>
+  </si>
+  <si>
+    <t>Construct and install Masonry Manhole</t>
+  </si>
+  <si>
+    <t>33,000.00</t>
+  </si>
+  <si>
+    <t>23,000.00</t>
+  </si>
+  <si>
+    <t>Ksh 248,355.71</t>
+  </si>
+  <si>
+    <t>PAVICON_FTTB_2023-2024_NYR149408-Muraguris Hotel</t>
+  </si>
+  <si>
+    <t>GF-Civil Works for Main Route(1.2 Trench)</t>
+  </si>
+  <si>
+    <t>556.82</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>9,465.94</t>
+  </si>
+  <si>
+    <t>Ksh 19,741.76</t>
+  </si>
+  <si>
+    <t>Supply, Install and fix cable tray 50mm</t>
+  </si>
+  <si>
+    <t>910.00</t>
+  </si>
+  <si>
+    <t>2,730.00</t>
+  </si>
+  <si>
+    <t>Ksh 44,198.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,17 +990,2806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="99.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" t="s">
+        <v>179</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" t="s">
+        <v>187</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" t="s">
+        <v>192</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" t="s">
+        <v>85</v>
+      </c>
+      <c r="E151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" t="s">
+        <v>87</v>
+      </c>
+      <c r="E153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>189</v>
+      </c>
+      <c r="B154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" t="s">
+        <v>176</v>
+      </c>
+      <c r="E155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>189</v>
+      </c>
+      <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+      <c r="B160" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161" t="s">
+        <v>208</v>
+      </c>
+      <c r="D161" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>154</v>
+      </c>
+      <c r="E162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" t="s">
+        <v>87</v>
+      </c>
+      <c r="E165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>80</v>
+      </c>
+      <c r="E166" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" t="s">
+        <v>75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>206</v>
+      </c>
+      <c r="B171" t="s">
+        <v>93</v>
+      </c>
+      <c r="E171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,24 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jowino\Documents\UiPath\Document_Understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D1B1C-FA08-4B42-9003-7B889AE8EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C219F-7C61-4B9E-9F31-51B8F64F6AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Errors!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$171</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="216">
   <si>
     <t>Project Name</t>
   </si>
@@ -688,12 +704,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -708,8 +730,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,15 +1014,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="99.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.81640625" customWidth="1"/>
     <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
@@ -1022,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1064,2827 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" t="s">
+        <v>179</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>80</v>
+      </c>
+      <c r="E142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" t="s">
+        <v>192</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" t="s">
+        <v>85</v>
+      </c>
+      <c r="E151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" t="s">
+        <v>87</v>
+      </c>
+      <c r="E153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>189</v>
+      </c>
+      <c r="B154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" t="s">
+        <v>130</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" t="s">
+        <v>176</v>
+      </c>
+      <c r="E155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>189</v>
+      </c>
+      <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+      <c r="B160" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161" t="s">
+        <v>208</v>
+      </c>
+      <c r="D161" t="s">
+        <v>209</v>
+      </c>
+      <c r="E161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>154</v>
+      </c>
+      <c r="E162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" t="s">
+        <v>213</v>
+      </c>
+      <c r="D165" t="s">
+        <v>87</v>
+      </c>
+      <c r="E165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>80</v>
+      </c>
+      <c r="E166" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" t="s">
+        <v>75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>206</v>
+      </c>
+      <c r="B171" t="s">
+        <v>93</v>
+      </c>
+      <c r="E171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E171" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TECHMINDS_FTTB_2023_2024_NBI449248_209 LENANA ROAD- RELIEF INTERNATIONAL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63321BF2-1138-4682-919F-3EB0B06B8D8A}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="74.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1066,11 +3911,12 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +3933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +3950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +3984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +4001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +4018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +4035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +4052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +4069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +4086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +4103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1284,11 +4130,12 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
+      <c r="D17" s="2"/>
       <c r="E17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +4152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +4169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1349,11 +4196,12 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +4218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1397,11 +4245,12 @@
       <c r="C24" t="s">
         <v>75</v>
       </c>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1418,7 +4267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1445,11 +4294,12 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
+      <c r="D27" s="2"/>
       <c r="E27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1466,7 +4316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1483,7 +4333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1500,7 +4350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1517,7 +4367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +4384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1551,7 +4401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1568,7 +4418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1585,7 +4435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1602,7 +4452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1619,7 +4469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1636,7 +4486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1663,11 +4513,12 @@
       <c r="C40" t="s">
         <v>73</v>
       </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1688,14 +4539,16 @@
       <c r="A42" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -1712,7 +4565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -1729,7 +4582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1746,7 +4599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1763,7 +4616,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -1780,7 +4633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -1797,7 +4650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1814,7 +4667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -1835,14 +4688,16 @@
       <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1859,7 +4714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -1886,11 +4741,12 @@
       <c r="C54" t="s">
         <v>40</v>
       </c>
+      <c r="D54" s="2"/>
       <c r="E54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1907,7 +4763,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -1924,7 +4780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -1941,7 +4797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -1958,7 +4814,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -1975,7 +4831,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -1992,7 +4848,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -2009,7 +4865,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -2026,7 +4882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2043,7 +4899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -2060,7 +4916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -2077,7 +4933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -2104,11 +4960,12 @@
       <c r="C67" t="s">
         <v>40</v>
       </c>
+      <c r="D67" s="2"/>
       <c r="E67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -2135,11 +4992,12 @@
       <c r="C69" t="s">
         <v>57</v>
       </c>
+      <c r="D69" s="2"/>
       <c r="E69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -2166,11 +5024,12 @@
       <c r="C71" t="s">
         <v>60</v>
       </c>
+      <c r="D71" s="2"/>
       <c r="E71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -2187,7 +5046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -2214,11 +5073,12 @@
       <c r="C74" t="s">
         <v>68</v>
       </c>
+      <c r="D74" s="2"/>
       <c r="E74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -2235,7 +5095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -2262,11 +5122,12 @@
       <c r="C77" t="s">
         <v>30</v>
       </c>
+      <c r="D77" s="2"/>
       <c r="E77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -2283,7 +5144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -2300,7 +5161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -2317,7 +5178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -2334,7 +5195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -2351,7 +5212,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -2368,7 +5229,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -2385,7 +5246,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -2402,7 +5263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -2419,7 +5280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -2436,7 +5297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2453,7 +5314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -2480,11 +5341,12 @@
       <c r="C90" t="s">
         <v>53</v>
       </c>
+      <c r="D90" s="2"/>
       <c r="E90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -2511,11 +5373,12 @@
       <c r="C92" t="s">
         <v>60</v>
       </c>
+      <c r="D92" s="2"/>
       <c r="E92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -2542,11 +5405,12 @@
       <c r="C94" t="s">
         <v>17</v>
       </c>
+      <c r="D94" s="2"/>
       <c r="E94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -2563,7 +5427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>134</v>
       </c>
@@ -2584,10 +5448,12 @@
       <c r="A97" t="s">
         <v>134</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E97" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2595,31 +5461,33 @@
       <c r="A98" t="s">
         <v>153</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E98" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>153</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -2636,7 +5504,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -2653,7 +5521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -2670,7 +5538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>153</v>
       </c>
@@ -2687,7 +5555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -2704,7 +5572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>153</v>
       </c>
@@ -2721,7 +5589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -2738,7 +5606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>153</v>
       </c>
@@ -2755,7 +5623,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -2772,7 +5640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -2789,7 +5657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -2806,7 +5674,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -2823,7 +5691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -2850,11 +5718,12 @@
       <c r="C113" t="s">
         <v>53</v>
       </c>
+      <c r="D113" s="2"/>
       <c r="E113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -2871,7 +5740,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>153</v>
       </c>
@@ -2888,7 +5757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -2915,11 +5784,12 @@
       <c r="C117" t="s">
         <v>73</v>
       </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -2940,14 +5810,16 @@
       <c r="A119" t="s">
         <v>153</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E119" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -2964,7 +5836,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>173</v>
       </c>
@@ -2991,11 +5863,12 @@
       <c r="C122" t="s">
         <v>17</v>
       </c>
+      <c r="D122" s="2"/>
       <c r="E122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -3012,7 +5885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>173</v>
       </c>
@@ -3029,7 +5902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>173</v>
       </c>
@@ -3046,7 +5919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>173</v>
       </c>
@@ -3063,7 +5936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -3080,7 +5953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -3097,7 +5970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>173</v>
       </c>
@@ -3114,7 +5987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -3131,7 +6004,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>173</v>
       </c>
@@ -3148,7 +6021,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>173</v>
       </c>
@@ -3165,7 +6038,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -3182,7 +6055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -3209,11 +6082,12 @@
       <c r="C135" t="s">
         <v>73</v>
       </c>
+      <c r="D135" s="2"/>
       <c r="E135" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -3240,6 +6114,7 @@
       <c r="C137" t="s">
         <v>187</v>
       </c>
+      <c r="D137" s="2"/>
       <c r="E137" t="s">
         <v>17</v>
       </c>
@@ -3248,14 +6123,16 @@
       <c r="A138" t="s">
         <v>173</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E138" t="s">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>189</v>
       </c>
@@ -3272,7 +6149,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -3299,11 +6176,12 @@
       <c r="C141" t="s">
         <v>20</v>
       </c>
+      <c r="D141" s="2"/>
       <c r="E141" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -3320,7 +6198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -3337,7 +6215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -3354,7 +6232,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -3371,7 +6249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>189</v>
       </c>
@@ -3388,7 +6266,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>189</v>
       </c>
@@ -3405,7 +6283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -3422,7 +6300,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>189</v>
       </c>
@@ -3439,7 +6317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>189</v>
       </c>
@@ -3456,7 +6334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -3473,7 +6351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -3490,7 +6368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -3517,11 +6395,12 @@
       <c r="C154" t="s">
         <v>130</v>
       </c>
+      <c r="D154" s="2"/>
       <c r="E154" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>189</v>
       </c>
@@ -3538,7 +6417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -3555,7 +6434,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -3579,14 +6458,15 @@
       <c r="B158" t="s">
         <v>72</v>
       </c>
-      <c r="C158" t="s">
-        <v>73</v>
-      </c>
+      <c r="C158" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D158" s="2"/>
       <c r="E158" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -3607,14 +6487,16 @@
       <c r="A160" t="s">
         <v>189</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E160" t="s">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -3635,14 +6517,16 @@
       <c r="A162" t="s">
         <v>206</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E162" t="s">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>206</v>
       </c>
@@ -3659,7 +6543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -3676,7 +6560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -3693,7 +6577,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>206</v>
       </c>
@@ -3710,7 +6594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -3727,7 +6611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>206</v>
       </c>
@@ -3744,7 +6628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -3761,7 +6645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>206</v>
       </c>
@@ -3782,14 +6666,21 @@
       <c r="A171" t="s">
         <v>206</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E171" t="s">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E171" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>